--- a/Data/EC/NIT-9006385488.xlsx
+++ b/Data/EC/NIT-9006385488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{821832B3-8036-4F2C-82DF-5E6D5C499D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF2A194-2D9F-46D2-884C-0A56ADD352D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C92D6265-575A-4CA4-94F7-960A48E95B8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FBE82CD4-16F7-4E7D-A83F-F1F8A5ECDCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="146">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,385 +71,376 @@
     <t>JOSE MARTINEZ JIMENEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>13749631</t>
+  </si>
+  <si>
+    <t>ALVARO CELIS CANIZARES</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1066178179</t>
+  </si>
+  <si>
+    <t>LEONARDO CARLOS AVILEZ GUZMAN</t>
+  </si>
+  <si>
+    <t>72250111</t>
+  </si>
+  <si>
+    <t>DUENIS DE JESUS ARCOS FUNIELES</t>
+  </si>
+  <si>
+    <t>1129495039</t>
+  </si>
+  <si>
+    <t>YURLEY KATHERINE MONTIEL FONTALVO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>1045167774</t>
+  </si>
+  <si>
+    <t>RAMIRO ALBERTO CALVO DOMÃ­NGUEZ</t>
+  </si>
+  <si>
+    <t>8642777</t>
+  </si>
+  <si>
+    <t>YORGI ENRIQUE DOMINGUEZ DE LA HOZ</t>
+  </si>
+  <si>
+    <t>20291770</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL JARAMILLO SALAS</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>15727099</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER SALCEDO PERALTA</t>
-  </si>
-  <si>
-    <t>1047402185</t>
-  </si>
-  <si>
-    <t>TONY CABRERA MARTINEZ</t>
-  </si>
-  <si>
-    <t>13749631</t>
-  </si>
-  <si>
-    <t>ALVARO CELIS CANIZARES</t>
-  </si>
-  <si>
-    <t>1066178179</t>
-  </si>
-  <si>
-    <t>LEONARDO CARLOS AVILEZ GUZMAN</t>
-  </si>
-  <si>
-    <t>72250111</t>
-  </si>
-  <si>
-    <t>DUENIS DE JESUS ARCOS FUNIELES</t>
-  </si>
-  <si>
-    <t>1129495039</t>
-  </si>
-  <si>
-    <t>YURLEY KATHERINE MONTIEL FONTALVO</t>
-  </si>
-  <si>
-    <t>1045167774</t>
-  </si>
-  <si>
-    <t>RAMIRO ALBERTO CALVO DOMÃ­NGUEZ</t>
-  </si>
-  <si>
-    <t>8642777</t>
-  </si>
-  <si>
-    <t>YORGI ENRIQUE DOMINGUEZ DE LA HOZ</t>
-  </si>
-  <si>
-    <t>20291770</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL JARAMILLO SALAS</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +539,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -561,9 +554,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -763,23 +754,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,10 +798,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,7 +854,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E015350F-7D22-A8CE-EB51-3B9F0B226C89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA84A78-3EE2-FF5D-0475-4B134468C4E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,8 +1205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D893B1B0-A3BD-428D-8A62-FB09BD56FA70}">
-  <dimension ref="B2:J455"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C269A63-6B0C-4947-88E0-13935C6227E0}">
+  <dimension ref="B2:J406"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1239,7 +1230,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1284,7 +1275,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1316,12 +1307,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>15438409</v>
+        <v>13685172</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1332,17 +1323,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1369,13 +1360,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1392,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1415,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1438,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1461,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1484,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1507,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1530,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1553,7 +1544,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1576,7 +1567,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1599,7 +1590,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1622,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1645,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1668,7 +1659,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1691,7 +1682,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1714,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1737,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1760,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1783,7 +1774,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1806,7 +1797,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1829,7 +1820,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1852,7 +1843,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1875,7 +1866,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1898,7 +1889,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1921,7 +1912,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1944,7 +1935,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1967,7 +1958,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -2418,19 +2409,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2447,7 +2438,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2464,19 +2455,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2694,19 +2685,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>21600</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2717,19 +2708,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>21804</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2740,19 +2731,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>23467</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2769,7 +2760,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2786,19 +2777,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2809,19 +2800,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>44000</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2832,19 +2823,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>35129</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2855,19 +2846,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>33918</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2878,19 +2869,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>29773</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>1014980</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2907,7 +2898,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2924,19 +2915,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2947,19 +2938,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>44000</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2970,19 +2961,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2993,19 +2984,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3039,19 +3030,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3062,19 +3053,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>44000</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3085,19 +3076,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3108,19 +3099,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3137,7 +3128,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3154,19 +3145,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3177,19 +3168,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>44000</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3200,19 +3191,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3223,19 +3214,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3252,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3269,19 +3260,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3292,19 +3283,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F99" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3315,19 +3306,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3338,19 +3329,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F101" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3367,10 +3358,10 @@
         <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3384,19 +3375,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3407,19 +3398,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3430,19 +3421,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3453,19 +3444,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3482,10 +3473,10 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F107" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3499,19 +3490,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3522,19 +3513,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3545,19 +3536,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3568,19 +3559,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3591,19 +3582,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3620,10 +3611,10 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3637,19 +3628,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3660,19 +3651,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3683,19 +3674,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3706,19 +3697,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3729,19 +3720,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3758,10 +3749,10 @@
         <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F119" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3775,19 +3766,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F120" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3798,19 +3789,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F121" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3821,19 +3812,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>44000</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>1100000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3844,19 +3835,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F123" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3867,19 +3858,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F124" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3890,19 +3881,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F125" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3913,19 +3904,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F126" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G126" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3936,13 +3927,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F127" s="18">
         <v>36000</v>
@@ -3959,19 +3950,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F128" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G128" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3982,19 +3973,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F129" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G129" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4005,19 +3996,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F130" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G130" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4028,19 +4019,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F131" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4051,19 +4042,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F132" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G132" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4074,13 +4065,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F133" s="18">
         <v>36000</v>
@@ -4097,19 +4088,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F134" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G134" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4120,19 +4111,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F135" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G135" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4143,19 +4134,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="F136" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G136" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4166,19 +4157,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F137" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4189,19 +4180,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F138" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G138" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4212,13 +4203,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="F139" s="18">
         <v>36000</v>
@@ -4235,19 +4226,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F140" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G140" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4258,19 +4249,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F141" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G141" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4281,19 +4272,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="F142" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G142" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4304,19 +4295,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F143" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4327,19 +4318,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F144" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G144" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4350,13 +4341,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F145" s="18">
         <v>36000</v>
@@ -4373,19 +4364,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F146" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G146" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4396,19 +4387,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F147" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G147" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4419,19 +4410,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F148" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G148" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4442,19 +4433,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F149" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4465,19 +4456,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F150" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G150" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4488,13 +4479,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F151" s="18">
         <v>36000</v>
@@ -4511,19 +4502,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F152" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G152" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4534,19 +4525,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F153" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G153" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4557,19 +4548,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="F154" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G154" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4580,19 +4571,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F155" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4603,19 +4594,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F156" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G156" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4626,13 +4617,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F157" s="18">
         <v>36000</v>
@@ -4649,19 +4640,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F158" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G158" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4672,19 +4663,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F159" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G159" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4695,19 +4686,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F160" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G160" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4718,19 +4709,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F161" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4741,19 +4732,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F162" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G162" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4764,13 +4755,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F163" s="18">
         <v>36000</v>
@@ -4787,19 +4778,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F164" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G164" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4810,19 +4801,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F165" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G165" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4833,19 +4824,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F166" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G166" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4856,19 +4847,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F167" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4879,19 +4870,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F168" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G168" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4902,13 +4893,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F169" s="18">
         <v>36000</v>
@@ -4925,19 +4916,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F170" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G170" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4948,19 +4939,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F171" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G171" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4971,19 +4962,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F172" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G172" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4994,19 +4985,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F173" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5017,19 +5008,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F174" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G174" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5040,13 +5031,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F175" s="18">
         <v>36000</v>
@@ -5063,19 +5054,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F176" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G176" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5086,19 +5077,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F177" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G177" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5109,19 +5100,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F178" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G178" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5132,19 +5123,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F179" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5155,13 +5146,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F180" s="18">
         <v>36341</v>
@@ -5178,19 +5169,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F181" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G181" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5201,19 +5192,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F182" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G182" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5224,13 +5215,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F183" s="18">
         <v>36341</v>
@@ -5247,13 +5238,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F184" s="18">
         <v>36341</v>
@@ -5270,19 +5261,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F185" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5293,13 +5284,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F186" s="18">
         <v>36341</v>
@@ -5316,19 +5307,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="F187" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G187" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5339,19 +5330,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F188" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G188" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5362,13 +5353,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="F189" s="18">
         <v>36341</v>
@@ -5385,13 +5376,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="F190" s="18">
         <v>36341</v>
@@ -5408,19 +5399,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F191" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5431,13 +5422,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F192" s="18">
         <v>36341</v>
@@ -5454,19 +5445,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F193" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G193" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5477,19 +5468,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F194" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G194" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5500,13 +5491,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F195" s="18">
         <v>36341</v>
@@ -5523,13 +5514,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F196" s="18">
         <v>36341</v>
@@ -5546,19 +5537,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="F197" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G197" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5569,13 +5560,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F198" s="18">
         <v>36341</v>
@@ -5592,19 +5583,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="F199" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G199" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5615,19 +5606,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="F200" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G200" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5638,13 +5629,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="F201" s="18">
         <v>36341</v>
@@ -5661,13 +5652,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F202" s="18">
         <v>36341</v>
@@ -5684,19 +5675,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F203" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5707,13 +5698,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F204" s="18">
         <v>36341</v>
@@ -5730,19 +5721,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F205" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G205" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5753,19 +5744,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F206" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G206" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5776,13 +5767,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F207" s="18">
         <v>36341</v>
@@ -5799,13 +5790,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="F208" s="18">
         <v>36341</v>
@@ -5822,19 +5813,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F209" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5845,13 +5836,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F210" s="18">
         <v>36341</v>
@@ -5868,19 +5859,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F211" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G211" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5891,19 +5882,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F212" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G212" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5914,13 +5905,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F213" s="18">
         <v>36341</v>
@@ -5937,13 +5928,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F214" s="18">
         <v>36341</v>
@@ -5960,19 +5951,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F215" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5983,13 +5974,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F216" s="18">
         <v>36341</v>
@@ -6006,19 +5997,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F217" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G217" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6029,19 +6020,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F218" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G218" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6052,13 +6043,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F219" s="18">
         <v>36341</v>
@@ -6075,13 +6066,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="F220" s="18">
         <v>36341</v>
@@ -6098,19 +6089,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F221" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6121,13 +6112,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F222" s="18">
         <v>36341</v>
@@ -6144,19 +6135,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F223" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G223" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6167,19 +6158,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F224" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G224" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6190,13 +6181,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F225" s="18">
         <v>36341</v>
@@ -6213,13 +6204,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F226" s="18">
         <v>36341</v>
@@ -6236,19 +6227,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F227" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6259,16 +6250,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F228" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G228" s="18">
         <v>908526</v>
@@ -6282,19 +6273,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F229" s="18">
         <v>36000</v>
       </c>
       <c r="G229" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6305,19 +6296,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F230" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G230" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6328,19 +6319,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F231" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G231" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6351,19 +6342,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F232" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G232" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6374,19 +6365,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F233" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6397,19 +6388,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F234" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G234" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6420,13 +6411,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="F235" s="18">
         <v>36000</v>
@@ -6443,19 +6434,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F236" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G236" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6466,19 +6457,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F237" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G237" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6489,19 +6480,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="F238" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G238" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6512,19 +6503,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F239" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6535,19 +6526,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="F240" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G240" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6558,13 +6549,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="F241" s="18">
         <v>36000</v>
@@ -6581,19 +6572,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F242" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G242" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6604,19 +6595,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F243" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G243" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6627,19 +6618,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="F244" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G244" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6650,19 +6641,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F245" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6673,19 +6664,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F246" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G246" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6696,13 +6687,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F247" s="18">
         <v>36000</v>
@@ -6719,19 +6710,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="F248" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G248" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6742,19 +6733,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F249" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G249" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6765,19 +6756,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="F250" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G250" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6788,19 +6779,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="F251" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G251" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6811,19 +6802,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F252" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G252" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6834,13 +6825,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F253" s="18">
         <v>36000</v>
@@ -6857,19 +6848,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F254" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G254" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6880,19 +6871,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F255" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G255" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6903,19 +6894,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F256" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G256" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6926,19 +6917,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F257" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G257" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6949,19 +6940,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F258" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G258" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6972,13 +6963,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F259" s="18">
         <v>36000</v>
@@ -6995,19 +6986,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F260" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G260" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7018,19 +7009,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F261" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G261" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7041,19 +7032,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F262" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G262" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7064,19 +7055,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F263" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G263" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7087,19 +7078,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="F264" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G264" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7110,13 +7101,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="F265" s="18">
         <v>36000</v>
@@ -7133,19 +7124,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="F266" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G266" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7156,19 +7147,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F267" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G267" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7179,19 +7170,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F268" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G268" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7202,19 +7193,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F269" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G269" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7225,19 +7216,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F270" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G270" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7248,13 +7239,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F271" s="18">
         <v>36000</v>
@@ -7271,19 +7262,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F272" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G272" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7294,19 +7285,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F273" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G273" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7317,19 +7308,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F274" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G274" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7340,19 +7331,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F275" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G275" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7363,19 +7354,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F276" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G276" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7386,13 +7377,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F277" s="18">
         <v>36000</v>
@@ -7409,19 +7400,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F278" s="18">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="G278" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7432,19 +7423,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F279" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G279" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7455,19 +7446,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F280" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G280" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7478,19 +7469,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F281" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7501,19 +7492,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F282" s="18">
-        <v>36000</v>
+        <v>36341</v>
       </c>
       <c r="G282" s="18">
-        <v>900000</v>
+        <v>908526</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7524,13 +7515,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F283" s="18">
         <v>36000</v>
@@ -7547,19 +7538,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F284" s="18">
-        <v>21600</v>
+        <v>44000</v>
       </c>
       <c r="G284" s="18">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7570,16 +7561,16 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F285" s="18">
-        <v>21804</v>
+        <v>36341</v>
       </c>
       <c r="G285" s="18">
         <v>908526</v>
@@ -7593,19 +7584,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F286" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G286" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7616,19 +7607,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F287" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G287" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7639,19 +7630,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="F288" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G288" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7662,19 +7653,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F289" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G289" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7685,13 +7676,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F290" s="18">
         <v>44000</v>
@@ -7708,19 +7699,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F291" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G291" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7731,19 +7722,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F292" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G292" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7754,19 +7745,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F293" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G293" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7777,19 +7768,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F294" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G294" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7800,19 +7791,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F295" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G295" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7823,13 +7814,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F296" s="18">
         <v>44000</v>
@@ -7846,19 +7837,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F297" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G297" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7869,19 +7860,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F298" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G298" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7892,19 +7883,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="F299" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G299" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7915,19 +7906,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="F300" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G300" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7938,19 +7929,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F301" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G301" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7961,13 +7952,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="F302" s="18">
         <v>44000</v>
@@ -7984,19 +7975,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F303" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G303" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -8007,19 +7998,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F304" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G304" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8030,19 +8021,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F305" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G305" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8053,19 +8044,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="F306" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G306" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8076,19 +8067,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F307" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G307" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8099,13 +8090,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F308" s="18">
         <v>44000</v>
@@ -8122,19 +8113,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F309" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G309" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8145,19 +8136,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F310" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G310" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8168,19 +8159,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F311" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G311" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8191,19 +8182,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="F312" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G312" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8214,19 +8205,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F313" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G313" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8237,13 +8228,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="F314" s="18">
         <v>44000</v>
@@ -8260,19 +8251,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F315" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G315" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8283,19 +8274,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F316" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G316" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8306,19 +8297,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="F317" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G317" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8329,19 +8320,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F318" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G318" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8352,19 +8343,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="F319" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G319" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8375,13 +8366,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="F320" s="18">
         <v>44000</v>
@@ -8398,19 +8389,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F321" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G321" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8421,19 +8412,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="F322" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G322" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8444,19 +8435,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="F323" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G323" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8467,19 +8458,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F324" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G324" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8490,19 +8481,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="F325" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G325" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8513,13 +8504,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="F326" s="18">
         <v>44000</v>
@@ -8536,19 +8527,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F327" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G327" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8559,19 +8550,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F328" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G328" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8582,19 +8573,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F329" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G329" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8605,19 +8596,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F330" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G330" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8628,19 +8619,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F331" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G331" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8651,13 +8642,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="F332" s="18">
         <v>44000</v>
@@ -8674,19 +8665,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F333" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G333" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8697,19 +8688,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="F334" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G334" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8720,19 +8711,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F335" s="18">
-        <v>44000</v>
+        <v>31249</v>
       </c>
       <c r="G335" s="18">
-        <v>1100000</v>
+        <v>781242</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8743,19 +8734,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="F336" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G336" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8766,19 +8757,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="F337" s="18">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="G337" s="18">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8789,13 +8780,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F338" s="18">
         <v>44000</v>
@@ -8812,19 +8803,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="F339" s="18">
-        <v>44000</v>
+        <v>36341</v>
       </c>
       <c r="G339" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8835,19 +8826,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F340" s="18">
-        <v>23467</v>
+        <v>36341</v>
       </c>
       <c r="G340" s="18">
-        <v>1100000</v>
+        <v>908526</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8858,19 +8849,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F341" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8881,13 +8872,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="F342" s="18">
         <v>36341</v>
@@ -8904,19 +8895,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="F343" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G343" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8927,19 +8918,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F344" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G344" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8950,13 +8941,13 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F345" s="18">
         <v>36341</v>
@@ -8973,13 +8964,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="F346" s="18">
         <v>36341</v>
@@ -8996,19 +8987,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F347" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G347" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -9019,13 +9010,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="F348" s="18">
         <v>36341</v>
@@ -9042,19 +9033,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="F349" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G349" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9065,19 +9056,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F350" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G350" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -9088,13 +9079,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="F351" s="18">
         <v>36341</v>
@@ -9111,13 +9102,13 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="F352" s="18">
         <v>36341</v>
@@ -9134,19 +9125,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="F353" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G353" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9157,13 +9148,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F354" s="18">
         <v>36341</v>
@@ -9180,19 +9171,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F355" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G355" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9203,19 +9194,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="F356" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G356" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9226,13 +9217,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="F357" s="18">
         <v>36341</v>
@@ -9249,13 +9240,13 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F358" s="18">
         <v>36341</v>
@@ -9272,19 +9263,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="F359" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G359" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9295,13 +9286,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F360" s="18">
         <v>36341</v>
@@ -9318,19 +9309,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="F361" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G361" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9341,19 +9332,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F362" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G362" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9364,13 +9355,13 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="F363" s="18">
         <v>36341</v>
@@ -9387,13 +9378,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F364" s="18">
         <v>36341</v>
@@ -9410,19 +9401,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="F365" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G365" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9433,13 +9424,13 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="F366" s="18">
         <v>36341</v>
@@ -9456,19 +9447,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="F367" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G367" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9479,19 +9470,19 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="F368" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G368" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H368" s="19"/>
       <c r="I368" s="19"/>
@@ -9502,13 +9493,13 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="F369" s="18">
         <v>36341</v>
@@ -9525,13 +9516,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="F370" s="18">
         <v>36341</v>
@@ -9548,19 +9539,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="F371" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G371" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9571,13 +9562,13 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="F372" s="18">
         <v>36341</v>
@@ -9594,19 +9585,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F373" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G373" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9617,19 +9608,19 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F374" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G374" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
@@ -9640,13 +9631,13 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="F375" s="18">
         <v>36341</v>
@@ -9663,13 +9654,13 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F376" s="18">
         <v>36341</v>
@@ -9686,19 +9677,19 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F377" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G377" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H377" s="19"/>
       <c r="I377" s="19"/>
@@ -9709,13 +9700,13 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F378" s="18">
         <v>36341</v>
@@ -9732,19 +9723,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="F379" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G379" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9755,19 +9746,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="F380" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G380" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9778,13 +9769,13 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F381" s="18">
         <v>36341</v>
@@ -9801,13 +9792,13 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="F382" s="18">
         <v>36341</v>
@@ -9824,19 +9815,19 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D383" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E383" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F383" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G383" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H383" s="19"/>
       <c r="I383" s="19"/>
@@ -9847,13 +9838,13 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E384" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="D384" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E384" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="F384" s="18">
         <v>36341</v>
@@ -9870,19 +9861,19 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D385" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E385" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D385" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E385" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F385" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G385" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H385" s="19"/>
       <c r="I385" s="19"/>
@@ -9893,19 +9884,19 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D386" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E386" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D386" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E386" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="F386" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G386" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H386" s="19"/>
       <c r="I386" s="19"/>
@@ -9916,13 +9907,13 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E387" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="D387" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E387" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F387" s="18">
         <v>36341</v>
@@ -9939,13 +9930,13 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D388" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E388" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="D388" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E388" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="F388" s="18">
         <v>36341</v>
@@ -9962,19 +9953,19 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D389" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E389" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E389" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F389" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G389" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H389" s="19"/>
       <c r="I389" s="19"/>
@@ -9985,13 +9976,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D390" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E390" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="E390" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="F390" s="18">
         <v>36341</v>
@@ -10008,19 +9999,19 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D391" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E391" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E391" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F391" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G391" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H391" s="19"/>
       <c r="I391" s="19"/>
@@ -10031,19 +10022,19 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D392" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E392" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E392" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F392" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G392" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H392" s="19"/>
       <c r="I392" s="19"/>
@@ -10054,13 +10045,13 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D393" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E393" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="E393" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F393" s="18">
         <v>36341</v>
@@ -10077,16 +10068,16 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D394" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E394" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E394" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="F394" s="18">
-        <v>35129</v>
+        <v>36341</v>
       </c>
       <c r="G394" s="18">
         <v>908526</v>
@@ -10100,19 +10091,19 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E395" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D395" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E395" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F395" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G395" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H395" s="19"/>
       <c r="I395" s="19"/>
@@ -10123,13 +10114,13 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D396" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E396" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="D396" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E396" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F396" s="18">
         <v>36341</v>
@@ -10146,19 +10137,19 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D397" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E397" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D397" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E397" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F397" s="18">
-        <v>36341</v>
+        <v>36000</v>
       </c>
       <c r="G397" s="18">
-        <v>908526</v>
+        <v>900000</v>
       </c>
       <c r="H397" s="19"/>
       <c r="I397" s="19"/>
@@ -10169,19 +10160,19 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D398" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E398" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D398" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E398" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F398" s="18">
-        <v>36341</v>
+        <v>44000</v>
       </c>
       <c r="G398" s="18">
-        <v>908526</v>
+        <v>1100000</v>
       </c>
       <c r="H398" s="19"/>
       <c r="I398" s="19"/>
@@ -10192,13 +10183,13 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D399" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E399" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="D399" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E399" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F399" s="18">
         <v>36341</v>
@@ -10211,1183 +10202,56 @@
       <c r="J399" s="20"/>
     </row>
     <row r="400" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B400" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C400" s="16" t="s">
+      <c r="B400" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D400" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E400" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D400" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E400" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F400" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G400" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H400" s="19"/>
-      <c r="I400" s="19"/>
-      <c r="J400" s="20"/>
-    </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B401" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C401" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D401" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E401" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F401" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G401" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H401" s="19"/>
-      <c r="I401" s="19"/>
-      <c r="J401" s="20"/>
-    </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B402" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C402" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D402" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E402" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F402" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G402" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H402" s="19"/>
-      <c r="I402" s="19"/>
-      <c r="J402" s="20"/>
-    </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B403" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C403" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D403" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E403" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F403" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G403" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H403" s="19"/>
-      <c r="I403" s="19"/>
-      <c r="J403" s="20"/>
-    </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B404" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C404" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D404" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E404" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F404" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G404" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H404" s="19"/>
-      <c r="I404" s="19"/>
-      <c r="J404" s="20"/>
+      <c r="F400" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G400" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H400" s="25"/>
+      <c r="I400" s="25"/>
+      <c r="J400" s="26"/>
     </row>
     <row r="405" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B405" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C405" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D405" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E405" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F405" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G405" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H405" s="19"/>
-      <c r="I405" s="19"/>
-      <c r="J405" s="20"/>
+      <c r="B405" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C405" s="32"/>
+      <c r="H405" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
     </row>
     <row r="406" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B406" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C406" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D406" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E406" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F406" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G406" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H406" s="19"/>
-      <c r="I406" s="19"/>
-      <c r="J406" s="20"/>
-    </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B407" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C407" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D407" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E407" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F407" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G407" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H407" s="19"/>
-      <c r="I407" s="19"/>
-      <c r="J407" s="20"/>
-    </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B408" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C408" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D408" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E408" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F408" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G408" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H408" s="19"/>
-      <c r="I408" s="19"/>
-      <c r="J408" s="20"/>
-    </row>
-    <row r="409" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B409" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C409" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D409" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E409" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F409" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G409" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H409" s="19"/>
-      <c r="I409" s="19"/>
-      <c r="J409" s="20"/>
-    </row>
-    <row r="410" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B410" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C410" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D410" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E410" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F410" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G410" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H410" s="19"/>
-      <c r="I410" s="19"/>
-      <c r="J410" s="20"/>
-    </row>
-    <row r="411" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B411" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C411" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D411" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E411" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F411" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G411" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H411" s="19"/>
-      <c r="I411" s="19"/>
-      <c r="J411" s="20"/>
-    </row>
-    <row r="412" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B412" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C412" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D412" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E412" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F412" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G412" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H412" s="19"/>
-      <c r="I412" s="19"/>
-      <c r="J412" s="20"/>
-    </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B413" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C413" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D413" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E413" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F413" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G413" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H413" s="19"/>
-      <c r="I413" s="19"/>
-      <c r="J413" s="20"/>
-    </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B414" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C414" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D414" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E414" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F414" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G414" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H414" s="19"/>
-      <c r="I414" s="19"/>
-      <c r="J414" s="20"/>
-    </row>
-    <row r="415" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B415" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C415" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D415" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E415" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F415" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G415" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H415" s="19"/>
-      <c r="I415" s="19"/>
-      <c r="J415" s="20"/>
-    </row>
-    <row r="416" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B416" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C416" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D416" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E416" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F416" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G416" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H416" s="19"/>
-      <c r="I416" s="19"/>
-      <c r="J416" s="20"/>
-    </row>
-    <row r="417" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B417" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C417" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D417" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E417" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F417" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G417" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H417" s="19"/>
-      <c r="I417" s="19"/>
-      <c r="J417" s="20"/>
-    </row>
-    <row r="418" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B418" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C418" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D418" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E418" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F418" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G418" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H418" s="19"/>
-      <c r="I418" s="19"/>
-      <c r="J418" s="20"/>
-    </row>
-    <row r="419" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B419" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C419" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D419" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E419" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F419" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G419" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H419" s="19"/>
-      <c r="I419" s="19"/>
-      <c r="J419" s="20"/>
-    </row>
-    <row r="420" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B420" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C420" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D420" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E420" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F420" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G420" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H420" s="19"/>
-      <c r="I420" s="19"/>
-      <c r="J420" s="20"/>
-    </row>
-    <row r="421" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B421" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C421" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D421" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E421" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F421" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G421" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H421" s="19"/>
-      <c r="I421" s="19"/>
-      <c r="J421" s="20"/>
-    </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B422" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C422" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D422" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E422" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F422" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G422" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H422" s="19"/>
-      <c r="I422" s="19"/>
-      <c r="J422" s="20"/>
-    </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B423" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C423" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D423" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E423" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F423" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G423" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H423" s="19"/>
-      <c r="I423" s="19"/>
-      <c r="J423" s="20"/>
-    </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B424" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C424" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D424" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E424" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F424" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G424" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H424" s="19"/>
-      <c r="I424" s="19"/>
-      <c r="J424" s="20"/>
-    </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B425" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C425" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D425" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E425" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F425" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G425" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H425" s="19"/>
-      <c r="I425" s="19"/>
-      <c r="J425" s="20"/>
-    </row>
-    <row r="426" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B426" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C426" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D426" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E426" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F426" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G426" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H426" s="19"/>
-      <c r="I426" s="19"/>
-      <c r="J426" s="20"/>
-    </row>
-    <row r="427" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B427" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C427" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D427" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E427" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F427" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G427" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H427" s="19"/>
-      <c r="I427" s="19"/>
-      <c r="J427" s="20"/>
-    </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B428" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C428" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D428" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E428" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F428" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G428" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H428" s="19"/>
-      <c r="I428" s="19"/>
-      <c r="J428" s="20"/>
-    </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B429" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C429" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D429" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E429" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F429" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G429" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H429" s="19"/>
-      <c r="I429" s="19"/>
-      <c r="J429" s="20"/>
-    </row>
-    <row r="430" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B430" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C430" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D430" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E430" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F430" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G430" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H430" s="19"/>
-      <c r="I430" s="19"/>
-      <c r="J430" s="20"/>
-    </row>
-    <row r="431" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B431" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C431" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D431" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E431" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F431" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G431" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H431" s="19"/>
-      <c r="I431" s="19"/>
-      <c r="J431" s="20"/>
-    </row>
-    <row r="432" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B432" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C432" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D432" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E432" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F432" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G432" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H432" s="19"/>
-      <c r="I432" s="19"/>
-      <c r="J432" s="20"/>
-    </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B433" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C433" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D433" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E433" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F433" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G433" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H433" s="19"/>
-      <c r="I433" s="19"/>
-      <c r="J433" s="20"/>
-    </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B434" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C434" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D434" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E434" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F434" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G434" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H434" s="19"/>
-      <c r="I434" s="19"/>
-      <c r="J434" s="20"/>
-    </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B435" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C435" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D435" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E435" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F435" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G435" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H435" s="19"/>
-      <c r="I435" s="19"/>
-      <c r="J435" s="20"/>
-    </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B436" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C436" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D436" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E436" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F436" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G436" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H436" s="19"/>
-      <c r="I436" s="19"/>
-      <c r="J436" s="20"/>
-    </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B437" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C437" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D437" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E437" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F437" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G437" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H437" s="19"/>
-      <c r="I437" s="19"/>
-      <c r="J437" s="20"/>
-    </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B438" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C438" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D438" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E438" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F438" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G438" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H438" s="19"/>
-      <c r="I438" s="19"/>
-      <c r="J438" s="20"/>
-    </row>
-    <row r="439" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B439" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C439" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D439" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E439" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F439" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G439" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H439" s="19"/>
-      <c r="I439" s="19"/>
-      <c r="J439" s="20"/>
-    </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B440" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C440" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D440" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E440" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F440" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G440" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H440" s="19"/>
-      <c r="I440" s="19"/>
-      <c r="J440" s="20"/>
-    </row>
-    <row r="441" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B441" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C441" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D441" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E441" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F441" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G441" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H441" s="19"/>
-      <c r="I441" s="19"/>
-      <c r="J441" s="20"/>
-    </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B442" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C442" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D442" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E442" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F442" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G442" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H442" s="19"/>
-      <c r="I442" s="19"/>
-      <c r="J442" s="20"/>
-    </row>
-    <row r="443" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B443" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C443" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D443" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E443" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F443" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G443" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H443" s="19"/>
-      <c r="I443" s="19"/>
-      <c r="J443" s="20"/>
-    </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B444" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C444" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D444" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E444" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F444" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G444" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H444" s="19"/>
-      <c r="I444" s="19"/>
-      <c r="J444" s="20"/>
-    </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B445" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C445" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D445" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E445" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F445" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G445" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H445" s="19"/>
-      <c r="I445" s="19"/>
-      <c r="J445" s="20"/>
-    </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B446" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C446" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D446" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F446" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G446" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H446" s="19"/>
-      <c r="I446" s="19"/>
-      <c r="J446" s="20"/>
-    </row>
-    <row r="447" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B447" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C447" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D447" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E447" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F447" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G447" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H447" s="19"/>
-      <c r="I447" s="19"/>
-      <c r="J447" s="20"/>
-    </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B448" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C448" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D448" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E448" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F448" s="18">
-        <v>33918</v>
-      </c>
-      <c r="G448" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H448" s="19"/>
-      <c r="I448" s="19"/>
-      <c r="J448" s="20"/>
-    </row>
-    <row r="449" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B449" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C449" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D449" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E449" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F449" s="24">
-        <v>29773</v>
-      </c>
-      <c r="G449" s="24">
-        <v>1014980</v>
-      </c>
-      <c r="H449" s="25"/>
-      <c r="I449" s="25"/>
-      <c r="J449" s="26"/>
-    </row>
-    <row r="454" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B454" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C454" s="32"/>
-      <c r="H454" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I454" s="1"/>
-      <c r="J454" s="1"/>
-    </row>
-    <row r="455" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B455" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C455" s="32"/>
-      <c r="H455" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I455" s="1"/>
-      <c r="J455" s="1"/>
+      <c r="B406" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C406" s="32"/>
+      <c r="H406" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B455:C455"/>
-    <mergeCell ref="B454:C454"/>
-    <mergeCell ref="H455:J455"/>
-    <mergeCell ref="H454:J454"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="H406:J406"/>
+    <mergeCell ref="H405:J405"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
